--- a/Eating Disorders dashboard/Eating Disorder Services dashboard metadata.xlsx
+++ b/Eating Disorders dashboard/Eating Disorder Services dashboard metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Mental Health\Pathway Specific Analysis\Eating Disorders\ED Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhsengland.sharepoint.com/sites/MentalHealthandDementiateam/Shared Documents/Mental Health/Pathway Specific Analysis/Eating Disorders/ED Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="632" documentId="8_{CB6B63F9-7D6C-4490-A978-C6329031B0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF2F10F9-8FD6-4089-AE7E-AE5A36A77130}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0160F7-8D6F-42D5-995C-7C1136FBE065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{BA54A120-2CE5-41A6-B225-D35312B0695A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -1658,6 +1658,272 @@
   </si>
   <si>
     <t>MHSDS Tables Used</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The referral category is assigned based on whether the referral:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">is to a specialist community eating disorder service ('C03','C09','C10')
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">is not to a specialist community eating disorder service, but the person has a eating disorder primary diagnosis recorded (F50%) against the referral
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is not to a specialist community eating disorder service, but has an eating disorder primary reason for referral (12)</t>
+    </r>
+  </si>
+  <si>
+    <t>The number of referrals that were received in the reporting period</t>
+  </si>
+  <si>
+    <t>The number of referrals that were received in the reporting period, by the referral source</t>
+  </si>
+  <si>
+    <t>Number of referrals that received their first face to face contact within the reporting period, by time between referral received date and first / second contact</t>
+  </si>
+  <si>
+    <t>Number of referrals that received their second face to face contact within the reporting period, by time between referral received date and first / second contact</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Count of referrals that received their first / second attended contact in the reporting period, where:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The care contact attendance is either Attended on time, or if late, before the relevant professional was ready to see the patient (5) or Arrived late, after the relevant professional was ready to see the patient, but was seen (6)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The consultation medium is either Face to face communication (01) or Telemedicine (03)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Of those referrals that had a NULL SERVICE DISCHARGE DATE and a NULL REFERRAL REJECTION DATE at the end of the reporting period and that had received at least one face to face contact, the time (in days) between their last face to face contact and the end of the reporting period, where:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The care contact attendance is either Attended on time, or if late, before the relevant professional was ready to see the patient (5) or Arrived late, after the relevant professional was ready to see the patient, but was seen (6)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The consultation medium is either Face to face communication (01) or Telemedicine (03)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Of those referrals that had a NULL SERVICE DISCHARGE DATE and a NULL REFERRAL REJECTION DATE at the end of the reporting period and that had received at least one contact, the time (in days) between their last contact and the end of the reporting period, where:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The care contact attendance is either Attended on time, or if late, before the relevant professional was ready to see the patient (5) or Arrived late, after the relevant professional was ready to see the patient, but was seen (6)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The consultation medium is in Face to face communication (01), Telephone (02), Telemedicine (03), Talk type for a person unable to speak (04), Other (98)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Count of referrals that had a NULL SERVICE DISCHARGE DATE and a NULL REFERRAL REJECTION DATE at the end of the reporting period, with at least one contact where:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The care contact attendance is either Attended on time, or if late, before the relevant professional was ready to see the patient (5) or Arrived late, after the relevant professional was ready to see the patient, but was seen (6)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The consultation medium is either Face to face communication (01) or Telemedicine (03)</t>
+    </r>
+  </si>
+  <si>
+    <t>Referrals still waiting for first contact</t>
+  </si>
+  <si>
+    <t>Referrals still waiting for second contact</t>
+  </si>
+  <si>
+    <t>Number of referrals that are yet to received their first face to face contact, by time between referral received date and end of reporting period</t>
+  </si>
+  <si>
+    <t>Number of referrals that are yet to received their second face to face contact, by time between referral received date and end of reporting period</t>
+  </si>
+  <si>
+    <t>Count of referrals that had a NULL SERVICE DISCHARGE DATE and a NULL REFERRAL REJECTION DATE at the end of the reporting period, where they are yet to have an attended face to face or telemedicine contact recorded
+The time is calculated from the REFERRAL REQUEST RECEIVED DATE to the end of the reporting period</t>
+  </si>
+  <si>
+    <t>Count of referrals that had a NULL SERVICE DISCHARGE DATE and a NULL REFERRAL REJECTION DATE at the end of the reporting period, where they are yet to have a second attended face to face or telemedicine contact recorded
+The time is calculated from the REFERRAL REQUEST RECEIVED DATE to the end of the reporting period</t>
   </si>
   <si>
     <r>
@@ -1678,253 +1944,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-Metadata (v1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The referral category is assigned based on whether the referral:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">is to a specialist community eating disorder service ('C03','C09','C10')
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">is not to a specialist community eating disorder service, but the person has a eating disorder primary diagnosis recorded (F50%) against the referral
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>is not to a specialist community eating disorder service, but has an eating disorder primary reason for referral (12)</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of referrals that were received in the reporting period</t>
-  </si>
-  <si>
-    <t>The number of referrals that were received in the reporting period, by the referral source</t>
-  </si>
-  <si>
-    <t>Number of referrals that received their first face to face contact within the reporting period, by time between referral received date and first / second contact</t>
-  </si>
-  <si>
-    <t>Number of referrals that received their second face to face contact within the reporting period, by time between referral received date and first / second contact</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Count of referrals that received their first / second attended contact in the reporting period, where:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The care contact attendance is either Attended on time, or if late, before the relevant professional was ready to see the patient (5) or Arrived late, after the relevant professional was ready to see the patient, but was seen (6)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The consultation medium is either Face to face communication (01) or Telemedicine (03)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Of those referrals that had a NULL SERVICE DISCHARGE DATE and a NULL REFERRAL REJECTION DATE at the end of the reporting period and that had received at least one face to face contact, the time (in days) between their last face to face contact and the end of the reporting period, where:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The care contact attendance is either Attended on time, or if late, before the relevant professional was ready to see the patient (5) or Arrived late, after the relevant professional was ready to see the patient, but was seen (6)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The consultation medium is either Face to face communication (01) or Telemedicine (03)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Of those referrals that had a NULL SERVICE DISCHARGE DATE and a NULL REFERRAL REJECTION DATE at the end of the reporting period and that had received at least one contact, the time (in days) between their last contact and the end of the reporting period, where:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The care contact attendance is either Attended on time, or if late, before the relevant professional was ready to see the patient (5) or Arrived late, after the relevant professional was ready to see the patient, but was seen (6)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The consultation medium is in Face to face communication (01), Telephone (02), Telemedicine (03), Talk type for a person unable to speak (04), Other (98)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Count of referrals that had a NULL SERVICE DISCHARGE DATE and a NULL REFERRAL REJECTION DATE at the end of the reporting period, with at least one contact where:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">The care contact attendance is either Attended on time, or if late, before the relevant professional was ready to see the patient (5) or Arrived late, after the relevant professional was ready to see the patient, but was seen (6)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>The consultation medium is either Face to face communication (01) or Telemedicine (03)</t>
+Metadata (v1.1)</t>
     </r>
   </si>
 </sst>
@@ -2059,7 +2079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2102,26 +2122,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2134,6 +2136,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2449,13 +2472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB9E1AF-7EDA-41B3-8C3A-DAA842789CE6}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27:F28"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2482,56 +2505,56 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
@@ -2546,10 +2569,10 @@
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="11" t="s">
         <v>111</v>
       </c>
@@ -2568,10 +2591,10 @@
       <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="13" t="s">
         <v>11</v>
       </c>
@@ -2581,20 +2604,20 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="20"/>
+      <c r="E10" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="27"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2604,12 +2627,12 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2619,12 +2642,12 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2646,10 +2669,10 @@
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="E13" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="25"/>
       <c r="G13" s="7" t="s">
         <v>16</v>
       </c>
@@ -2660,22 +2683,22 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A14" s="22">
+      <c r="A14" s="23">
         <v>2</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="7" t="s">
         <v>11</v>
       </c>
@@ -2686,12 +2709,12 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="90.6" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="7" t="s">
         <v>16</v>
       </c>
@@ -2702,22 +2725,22 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A16" s="22">
+      <c r="A16" s="23">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2728,12 +2751,12 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="105" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2744,22 +2767,22 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A18" s="22">
+      <c r="A18" s="23">
         <v>4</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="21"/>
+      <c r="E18" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="25"/>
       <c r="G18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2769,12 +2792,12 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="7" t="s">
         <v>11</v>
       </c>
@@ -2784,12 +2807,12 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="75" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="7" t="s">
         <v>12</v>
       </c>
@@ -2799,22 +2822,22 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="42" customHeight="1">
-      <c r="A21" s="22">
+      <c r="A21" s="23">
         <v>5</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="21"/>
+      <c r="E21" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="25"/>
       <c r="G21" s="7" t="s">
         <v>16</v>
       </c>
@@ -2824,12 +2847,12 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="7" t="s">
         <v>11</v>
       </c>
@@ -2839,12 +2862,12 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="66" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="7" t="s">
         <v>12</v>
       </c>
@@ -2854,349 +2877,363 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A24" s="18">
+      <c r="A24" s="23">
+        <v>25</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="49.8" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A26" s="23">
+        <v>26</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="50.4" customHeight="1">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A28" s="26">
         <v>6</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B28" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D28" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="13" t="s">
+      <c r="E28" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H28" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="13" t="s">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="57" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="13" t="s">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="57" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A27" s="18">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A31" s="26">
         <v>7</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B31" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E31" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="13" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="13" t="s">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A29" s="16">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A33" s="16">
         <v>8</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="20" t="s">
+      <c r="D33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="13" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A30" s="16">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A34" s="16">
         <v>9</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E34" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="13" t="s">
+      <c r="F34" s="27"/>
+      <c r="G34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A31" s="18">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A35" s="26">
         <v>10</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B35" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D35" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E35" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="102.6" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="41.4">
-      <c r="A33" s="18">
-        <v>11</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="32.4" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="102.6" customHeight="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="41.4">
+      <c r="A37" s="26">
+        <v>11</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="32.4" customHeight="1">
+      <c r="A39" s="26"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="41.4">
-      <c r="A36" s="18">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="41.4">
+      <c r="A40" s="26">
         <v>12</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B40" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C40" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D40" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E40" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="13" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="13" t="s">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="41.4">
-      <c r="A39" s="18">
-        <v>13</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>53</v>
@@ -3204,12 +3241,12 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="13" t="s">
         <v>16</v>
       </c>
@@ -3218,390 +3255,510 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+    <row r="43" spans="1:9" ht="41.4">
+      <c r="A43" s="26">
+        <v>13</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="27"/>
       <c r="G43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A44" s="26"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A45" s="26"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A46" s="26"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A47" s="26"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H47" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="41.4">
-      <c r="A44" s="18">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="41.4">
+      <c r="A48" s="26">
         <v>14</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B48" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C48" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D48" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E48" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="13" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H48" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="13" t="s">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A49" s="26"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H49" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="13" t="s">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A50" s="26"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H50" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A47" s="10">
+    <row r="51" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A51" s="10">
         <v>15</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="31.2" customHeight="1">
-      <c r="A48" s="10">
-        <v>16</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="97.2" customHeight="1">
-      <c r="A49" s="10">
-        <v>17</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="108.6" customHeight="1">
-      <c r="A50" s="10">
-        <v>18</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="134.4" customHeight="1">
-      <c r="A51" s="10">
-        <v>19</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="25"/>
       <c r="G51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A52" s="10">
+        <v>16</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="97.2" customHeight="1">
+      <c r="A53" s="10">
+        <v>17</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="108.6" customHeight="1">
+      <c r="A54" s="10">
+        <v>18</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="134.4" customHeight="1">
+      <c r="A55" s="10">
+        <v>19</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A52" s="18">
+    <row r="56" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A56" s="26">
         <v>20</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B56" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C56" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D56" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E56" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="13" t="s">
+      <c r="F56" s="27"/>
+      <c r="G56" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H56" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="13" t="s">
+    <row r="57" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A57" s="26"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H57" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A54" s="18">
+    <row r="58" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A58" s="26">
         <v>21</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B58" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C58" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D58" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E58" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="13" t="s">
+      <c r="F58" s="27"/>
+      <c r="G58" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="13" t="s">
+    <row r="59" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A59" s="26"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H59" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="41.4">
-      <c r="A56" s="16">
+    <row r="60" spans="1:9" ht="41.4">
+      <c r="A60" s="16">
         <v>22</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B60" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E60" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="13" t="s">
+      <c r="F60" s="27"/>
+      <c r="G60" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H60" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="41.4">
-      <c r="A57" s="10">
+    <row r="61" spans="1:9" ht="41.4">
+      <c r="A61" s="10">
         <v>23</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="21" t="s">
+      <c r="D61" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="7" t="s">
+      <c r="F61" s="25"/>
+      <c r="G61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A58" s="22">
+    <row r="62" spans="1:9" ht="31.2" customHeight="1">
+      <c r="A62" s="23">
         <v>24</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B62" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C62" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D62" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E62" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="7" t="s">
+      <c r="F62" s="25"/>
+      <c r="G62" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H62" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="41.4">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="8" t="s">
+    <row r="63" spans="1:9" ht="41.4">
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H63" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="41.4">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="7" t="s">
+    <row r="64" spans="1:9" ht="41.4">
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H64" s="9" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A2:H6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:F60"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
+  <mergeCells count="98">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E43:F47"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="E37:F39"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:F30"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F12"/>
@@ -3615,64 +3772,24 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:F26"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="E33:F35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:F38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E39:F43"/>
-    <mergeCell ref="E44:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="A2:H6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:F64"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3680,6 +3797,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010824154017C5C4084C585B003F9199E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd7a67d765d6a6d362553ef7f234c0f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="af14f022-0ccd-4f26-83d1-05ac0174543b" xmlns:ns3="824ea158-d237-4f5c-9dc2-2d896c19bab1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4bc7b8ce746e119fd6fc1953b9d3340" ns2:_="" ns3:_="">
     <xsd:import namespace="af14f022-0ccd-4f26-83d1-05ac0174543b"/>
@@ -3890,12 +4013,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3906,6 +4023,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7BC150-EAFF-44E1-9C43-7BA1D881E8F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="824ea158-d237-4f5c-9dc2-2d896c19bab1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="af14f022-0ccd-4f26-83d1-05ac0174543b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F1903E-4E46-40B2-A7F6-37D284B25469}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3924,23 +4058,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7BC150-EAFF-44E1-9C43-7BA1D881E8F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="824ea158-d237-4f5c-9dc2-2d896c19bab1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="af14f022-0ccd-4f26-83d1-05ac0174543b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A28772-AD64-4B53-81ED-88C2FC8EAF1A}">
   <ds:schemaRefs>
